--- a/Mips/Implementation/Control Bits.xlsx
+++ b/Mips/Implementation/Control Bits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Level 3 Term 1\My 3-1\CSE 306 COM ARCH SESSIONAL\Mips\Implementation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A991F2E-CC07-43C4-AFF6-4E6DFF81A950}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35142BF3-A669-40A7-8864-FF9926E6CF58}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24972" windowHeight="10152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>Instructions</t>
   </si>
@@ -54,12 +54,6 @@
     <t>Jump</t>
   </si>
   <si>
-    <t>ALUControlBit1</t>
-  </si>
-  <si>
-    <t>ALUControlBit0</t>
-  </si>
-  <si>
     <t>subi</t>
   </si>
   <si>
@@ -139,6 +133,30 @@
   </si>
   <si>
     <t>K</t>
+  </si>
+  <si>
+    <t>A'+C'</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>C'+B'D+A'B'</t>
+  </si>
+  <si>
+    <t>ACD</t>
+  </si>
+  <si>
+    <t>ACD'</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>BCD'</t>
+  </si>
+  <si>
+    <t>ABCD</t>
   </si>
 </sst>
 </file>
@@ -499,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,10 +540,10 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -554,14 +572,13 @@
       <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -576,14 +593,14 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" t="str">
         <f>DEC2BIN(1,4)</f>
         <v>0001</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -609,23 +626,19 @@
       <c r="K3" s="4">
         <v>0</v>
       </c>
-      <c r="L3" s="4">
-        <v>1</v>
-      </c>
-      <c r="M3" s="4">
-        <v>1</v>
-      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" t="str">
         <f>DEC2BIN(2,4)</f>
         <v>0010</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -651,23 +664,19 @@
       <c r="K4" s="4">
         <v>0</v>
       </c>
-      <c r="L4" s="4">
-        <v>1</v>
-      </c>
-      <c r="M4" s="4">
-        <v>1</v>
-      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" t="str">
         <f>DEC2BIN(3,4)</f>
         <v>0011</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -693,23 +702,19 @@
       <c r="K5" s="4">
         <v>0</v>
       </c>
-      <c r="L5" s="4">
-        <v>1</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" t="str">
         <f>DEC2BIN(4,4)</f>
         <v>0100</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -735,23 +740,19 @@
       <c r="K6" s="4">
         <v>0</v>
       </c>
-      <c r="L6" s="4">
-        <v>1</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0</v>
-      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" t="str">
         <f>DEC2BIN(5,4)</f>
         <v>0101</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -777,74 +778,66 @@
       <c r="K7" s="4">
         <v>0</v>
       </c>
-      <c r="L7" s="4">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0</v>
-      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" t="str">
         <f>DEC2BIN(6,4)</f>
         <v>0110</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K8" s="4">
         <v>1</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" t="str">
         <f>DEC2BIN(7,4)</f>
         <v>0111</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -861,23 +854,19 @@
       <c r="K9" s="4">
         <v>0</v>
       </c>
-      <c r="L9" s="4">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4">
-        <v>1</v>
-      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" t="str">
         <f>DEC2BIN(8,4)</f>
         <v>1000</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -903,23 +892,19 @@
       <c r="K10" s="4">
         <v>0</v>
       </c>
-      <c r="L10" s="4">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4">
-        <v>1</v>
-      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" t="str">
         <f>DEC2BIN(9,4)</f>
         <v>1001</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
@@ -945,32 +930,28 @@
       <c r="K11" s="5">
         <v>0</v>
       </c>
-      <c r="L11" s="5">
-        <v>0</v>
-      </c>
-      <c r="M11" s="5">
-        <v>1</v>
-      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12" t="str">
         <f>DEC2BIN(10,4)</f>
         <v>1010</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G12" s="5">
         <v>0</v>
@@ -987,23 +968,19 @@
       <c r="K12" s="5">
         <v>0</v>
       </c>
-      <c r="L12" s="5">
-        <v>0</v>
-      </c>
-      <c r="M12" s="5">
-        <v>0</v>
-      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" t="str">
         <f>DEC2BIN(11,4)</f>
         <v>1011</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13" s="5">
         <v>0</v>
@@ -1029,23 +1006,19 @@
       <c r="K13" s="5">
         <v>0</v>
       </c>
-      <c r="L13" s="5">
-        <v>0</v>
-      </c>
-      <c r="M13" s="5">
-        <v>0</v>
-      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" t="str">
         <f>DEC2BIN(12,4)</f>
         <v>1100</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
@@ -1071,11 +1044,33 @@
       <c r="K14" s="5">
         <v>0</v>
       </c>
-      <c r="L14" s="5">
-        <v>0</v>
-      </c>
-      <c r="M14" s="5">
-        <v>0</v>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
